--- a/delivery system/results.xlsx
+++ b/delivery system/results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="157">
   <si>
     <t>Location</t>
   </si>
@@ -34,16 +34,11 @@
     <t>0</t>
   </si>
   <si>
-    <t>M :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 1.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: 6.0 _x000D_
-_x000D_
-R :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 3.0 _x000D_
-_x000D_
+    <t>Monday :
+  - Number of 15 ton trucks: 1.0 
+  - Number of 10 ton trucks: 6.0 
+Thursday :
+  - Number of 15 ton trucks: 3.0 
   - Number of 10 ton trucks: 3.0</t>
   </si>
   <si>
@@ -53,50 +48,25 @@
     <t>1</t>
   </si>
   <si>
-    <t>M :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 10.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: -0.0 _x000D_
-_x000D_
-R :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 2.0 _x000D_
-_x000D_
+    <t>Monday :
+  - Number of 15 ton trucks: 10.0 
+Thursday :
+  - Number of 15 ton trucks: 2.0 
   - Number of 10 ton trucks: 12.0</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>M :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 6.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: -0.0 _x000D_
-_x000D_
-T :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 6.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: -0.0 _x000D_
-_x000D_
-W :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 6.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: -0.0 _x000D_
-_x000D_
-R :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 0.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: 9.0 _x000D_
-_x000D_
-F :_x000D_
-_x000D_
-  - Number of 15 ton trucks: -0.0 _x000D_
-_x000D_
+    <t>Monday :
+  - Number of 15 ton trucks: 6.0 
+Tuesday :
+  - Number of 15 ton trucks: 6.0 
+Wednesday :
+  - Number of 15 ton trucks: 6.0 
+Thursday :
+  - Number of 10 ton trucks: 9.0 
+Friday :
   - Number of 10 ton trucks: 9.0</t>
   </si>
   <si>
@@ -106,43 +76,26 @@
     <t>3</t>
   </si>
   <si>
-    <t>M :_x000D_
-_x000D_
-  - Number of 15 ton trucks: -0.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: 15.0 _x000D_
-_x000D_
-R :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 10.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: 0.0</t>
+    <t>Monday :
+  - Number of 10 ton trucks: 15.0 
+Thursday :
+  - Number of 15 ton trucks: 10.0</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>M :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 20.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: 0.0 _x000D_
-_x000D_
-R :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 0.0 _x000D_
-_x000D_
+    <t>Monday :
+  - Number of 15 ton trucks: 20.0 
+Thursday :
   - Number of 10 ton trucks: 30.0</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>M :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 10.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: 0.0</t>
+    <t>Monday :
+  - Number of 15 ton trucks: 10.0</t>
   </si>
   <si>
     <t>Once a week</t>
@@ -151,98 +104,54 @@
     <t>6</t>
   </si>
   <si>
-    <t>M :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 10.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: 0.0 _x000D_
-_x000D_
-R :_x000D_
-_x000D_
-  - Number of 15 ton trucks: -0.0 _x000D_
-_x000D_
+    <t>Monday :
+  - Number of 15 ton trucks: 10.0 
+Thursday :
   - Number of 10 ton trucks: 15.0</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
-    <t>M :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 1.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: 21.0 _x000D_
-_x000D_
-R :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 15.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: -0.0</t>
+    <t>Monday :
+  - Number of 15 ton trucks: 1.0 
+  - Number of 10 ton trucks: 21.0 
+Thursday :
+  - Number of 15 ton trucks: 15.0</t>
   </si>
   <si>
     <t>8</t>
   </si>
   <si>
-    <t>M :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 15.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: 0.0 _x000D_
-_x000D_
-R :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 15.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: -0.0</t>
+    <t>Monday :
+  - Number of 15 ton trucks: 15.0 
+Thursday :
+  - Number of 15 ton trucks: 15.0</t>
   </si>
   <si>
     <t>9</t>
   </si>
   <si>
-    <t>M :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 8.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: 0.0 _x000D_
-_x000D_
-T :_x000D_
-_x000D_
-  - Number of 15 ton trucks: -0.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: 12.0 _x000D_
-_x000D_
-W :_x000D_
-_x000D_
-  - Number of 15 ton trucks: -0.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: 12.0 _x000D_
-_x000D_
-R :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 0.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: 12.0 _x000D_
-_x000D_
-F :_x000D_
-_x000D_
-  - Number of 15 ton trucks: -0.0 _x000D_
-_x000D_
+    <t>Monday :
+  - Number of 15 ton trucks: 8.0 
+Tuesday :
+  - Number of 10 ton trucks: 12.0 
+Wednesday :
+  - Number of 10 ton trucks: 12.0 
+Thursday :
+  - Number of 10 ton trucks: 12.0 
+Friday :
   - Number of 10 ton trucks: 12.0</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
-    <t>M :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 3.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: 18.0 _x000D_
-_x000D_
-R :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 1.0 _x000D_
-_x000D_
+    <t>Monday :
+  - Number of 15 ton trucks: 3.0 
+  - Number of 10 ton trucks: 18.0 
+Thursday :
+  - Number of 15 ton trucks: 1.0 
   - Number of 10 ton trucks: 21.0</t>
   </si>
   <si>
@@ -252,151 +161,75 @@
     <t>12</t>
   </si>
   <si>
-    <t>M :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 9.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: 24.0 _x000D_
-_x000D_
-R :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 3.0 _x000D_
-_x000D_
+    <t>Monday :
+  - Number of 15 ton trucks: 9.0 
+  - Number of 10 ton trucks: 24.0 
+Thursday :
+  - Number of 15 ton trucks: 3.0 
   - Number of 10 ton trucks: 33.0</t>
   </si>
   <si>
     <t>14</t>
   </si>
   <si>
-    <t>M :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 6.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: 0.0 _x000D_
-_x000D_
-T :_x000D_
-_x000D_
-  - Number of 15 ton trucks: -0.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: 9.0 _x000D_
-_x000D_
-W :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 6.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: -0.0 _x000D_
-_x000D_
-R :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 0.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: 9.0 _x000D_
-_x000D_
-F :_x000D_
-_x000D_
-  - Number of 15 ton trucks: -0.0 _x000D_
-_x000D_
+    <t>Monday :
+  - Number of 15 ton trucks: 6.0 
+Tuesday :
+  - Number of 10 ton trucks: 9.0 
+Wednesday :
+  - Number of 15 ton trucks: 6.0 
+Thursday :
+  - Number of 10 ton trucks: 9.0 
+Friday :
   - Number of 10 ton trucks: 9.0</t>
   </si>
   <si>
     <t>15</t>
   </si>
   <si>
-    <t>M :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 2.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: 0.0 _x000D_
-_x000D_
-T :_x000D_
-_x000D_
-  - Number of 15 ton trucks: -0.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: 3.0 _x000D_
-_x000D_
-W :_x000D_
-_x000D_
-  - Number of 15 ton trucks: -0.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: 3.0 _x000D_
-_x000D_
-R :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 2.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: -0.0 _x000D_
-_x000D_
-F :_x000D_
-_x000D_
-  - Number of 15 ton trucks: -0.0 _x000D_
-_x000D_
+    <t>Monday :
+  - Number of 15 ton trucks: 2.0 
+Tuesday :
+  - Number of 10 ton trucks: 3.0 
+Wednesday :
+  - Number of 10 ton trucks: 3.0 
+Thursday :
+  - Number of 15 ton trucks: 2.0 
+Friday :
   - Number of 10 ton trucks: 3.0</t>
   </si>
   <si>
     <t>17</t>
   </si>
   <si>
-    <t>M :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 10.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: -0.0 _x000D_
-_x000D_
-T :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 0.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: 15.0 _x000D_
-_x000D_
-W :_x000D_
-_x000D_
-  - Number of 15 ton trucks: -0.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: 15.0 _x000D_
-_x000D_
-R :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 10.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: -0.0 _x000D_
-_x000D_
-F :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 10.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: -0.0</t>
+    <t>Monday :
+  - Number of 15 ton trucks: 10.0 
+Tuesday :
+  - Number of 10 ton trucks: 15.0 
+Wednesday :
+  - Number of 10 ton trucks: 15.0 
+Thursday :
+  - Number of 15 ton trucks: 10.0 
+Friday :
+  - Number of 15 ton trucks: 10.0</t>
   </si>
   <si>
     <t>18</t>
   </si>
   <si>
-    <t>M :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 5.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: -0.0 _x000D_
-_x000D_
-R :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 5.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: -0.0</t>
+    <t>Monday :
+  - Number of 15 ton trucks: 5.0 
+Thursday :
+  - Number of 15 ton trucks: 5.0</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
-    <t>M :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 25.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: 0.0 _x000D_
-_x000D_
-R :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 25.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: -0.0</t>
+    <t>Monday :
+  - Number of 15 ton trucks: 25.0 
+Thursday :
+  - Number of 15 ton trucks: 25.0</t>
   </si>
   <si>
     <t>20</t>
@@ -405,42 +238,27 @@
     <t>21</t>
   </si>
   <si>
-    <t>M :_x000D_
-_x000D_
-  - Number of 15 ton trucks: -0.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: 30.0 _x000D_
-_x000D_
-R :_x000D_
-_x000D_
-  - Number of 15 ton trucks: -0.0 _x000D_
-_x000D_
+    <t>Monday :
+  - Number of 10 ton trucks: 30.0 
+Thursday :
   - Number of 10 ton trucks: 30.0</t>
   </si>
   <si>
     <t>22</t>
   </si>
   <si>
-    <t>M :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 1.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: 6.0 _x000D_
-_x000D_
-R :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 1.0 _x000D_
-_x000D_
+    <t>Monday :
+  - Number of 15 ton trucks: 1.0 
+  - Number of 10 ton trucks: 6.0 
+Thursday :
+  - Number of 15 ton trucks: 1.0 
   - Number of 10 ton trucks: 6.0</t>
   </si>
   <si>
     <t>23</t>
   </si>
   <si>
-    <t>M :_x000D_
-_x000D_
-  - Number of 15 ton trucks: -0.0 _x000D_
-_x000D_
+    <t>Monday :
   - Number of 10 ton trucks: 60.0</t>
   </si>
   <si>
@@ -453,165 +271,87 @@
     <t>26</t>
   </si>
   <si>
-    <t>M :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 15.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: 0.0 _x000D_
-_x000D_
-R :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 1.0 _x000D_
-_x000D_
+    <t>Monday :
+  - Number of 15 ton trucks: 15.0 
+Thursday :
+  - Number of 15 ton trucks: 1.0 
   - Number of 10 ton trucks: 21.0</t>
   </si>
   <si>
     <t>27</t>
   </si>
   <si>
-    <t>M :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 0.0 _x000D_
-_x000D_
+    <t>Monday :
   - Number of 10 ton trucks: 15.0</t>
   </si>
   <si>
     <t>28</t>
   </si>
   <si>
-    <t>M :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 10.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: 0.0 _x000D_
-_x000D_
-T :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 10.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: -0.0 _x000D_
-_x000D_
-W :_x000D_
-_x000D_
-  - Number of 15 ton trucks: -0.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: 15.0 _x000D_
-_x000D_
-R :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 10.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: 0.0 _x000D_
-_x000D_
-F :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 10.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: -0.0</t>
+    <t>Monday :
+  - Number of 15 ton trucks: 10.0 
+Tuesday :
+  - Number of 15 ton trucks: 10.0 
+Wednesday :
+  - Number of 10 ton trucks: 15.0 
+Thursday :
+  - Number of 15 ton trucks: 10.0 
+Friday :
+  - Number of 15 ton trucks: 10.0</t>
   </si>
   <si>
     <t>29</t>
   </si>
   <si>
-    <t>M :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 25.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: 0.0 _x000D_
-_x000D_
-R :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 1.0 _x000D_
-_x000D_
+    <t>Monday :
+  - Number of 15 ton trucks: 25.0 
+Thursday :
+  - Number of 15 ton trucks: 1.0 
   - Number of 10 ton trucks: 36.0</t>
   </si>
   <si>
     <t>30</t>
   </si>
   <si>
-    <t>M :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 20.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: 0.0 _x000D_
-_x000D_
-R :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 20.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: -0.0</t>
+    <t>Monday :
+  - Number of 15 ton trucks: 20.0 
+Thursday :
+  - Number of 15 ton trucks: 20.0</t>
   </si>
   <si>
     <t>31</t>
   </si>
   <si>
-    <t>M :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 0.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: 45.0 _x000D_
-_x000D_
-R :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 30.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: -0.0</t>
+    <t>Monday :
+  - Number of 10 ton trucks: 45.0 
+Thursday :
+  - Number of 15 ton trucks: 30.0</t>
   </si>
   <si>
     <t>32</t>
   </si>
   <si>
-    <t>M :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 10.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: -0.0 _x000D_
-_x000D_
-T :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 10.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: -0.0 _x000D_
-_x000D_
-W :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 10.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: -0.0 _x000D_
-_x000D_
-R :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 10.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: -0.0 _x000D_
-_x000D_
-F :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 10.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: -0.0</t>
+    <t>Monday :
+  - Number of 15 ton trucks: 10.0 
+Tuesday :
+  - Number of 15 ton trucks: 10.0 
+Wednesday :
+  - Number of 15 ton trucks: 10.0 
+Thursday :
+  - Number of 15 ton trucks: 10.0 
+Friday :
+  - Number of 15 ton trucks: 10.0</t>
   </si>
   <si>
     <t>33</t>
   </si>
   <si>
-    <t>M :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 20.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: -0.0 _x000D_
-_x000D_
-W :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 20.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: -0.0 _x000D_
-_x000D_
-F :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 20.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: -0.0</t>
+    <t>Monday :
+  - Number of 15 ton trucks: 20.0 
+Wednesday :
+  - Number of 15 ton trucks: 20.0 
+Friday :
+  - Number of 15 ton trucks: 20.0</t>
   </si>
   <si>
     <t>Thrice a week</t>
@@ -620,85 +360,34 @@
     <t>34</t>
   </si>
   <si>
-    <t>M :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 2.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: -0.0 _x000D_
-_x000D_
-T :_x000D_
-_x000D_
-  - Number of 15 ton trucks: -0.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: 3.0 _x000D_
-_x000D_
-W :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 2.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: -0.0 _x000D_
-_x000D_
-R :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 2.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: 0.0 _x000D_
-_x000D_
-F :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 2.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: -0.0</t>
+    <t>Monday :
+  - Number of 15 ton trucks: 2.0 
+Tuesday :
+  - Number of 10 ton trucks: 3.0 
+Wednesday :
+  - Number of 15 ton trucks: 2.0 
+Thursday :
+  - Number of 15 ton trucks: 2.0 
+Friday :
+  - Number of 15 ton trucks: 2.0</t>
   </si>
   <si>
     <t>36</t>
   </si>
   <si>
-    <t>M :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 25.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: -0.0 _x000D_
-_x000D_
-R :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 25.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: -0.0</t>
-  </si>
-  <si>
     <t>37</t>
   </si>
   <si>
-    <t>M :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 2.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: 0.0 _x000D_
-_x000D_
-T :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 2.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: -0.0 _x000D_
-_x000D_
-W :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 2.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: -0.0 _x000D_
-_x000D_
-R :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 2.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: -0.0 _x000D_
-_x000D_
-F :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 2.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: -0.0</t>
+    <t>Monday :
+  - Number of 15 ton trucks: 2.0 
+Tuesday :
+  - Number of 15 ton trucks: 2.0 
+Wednesday :
+  - Number of 15 ton trucks: 2.0 
+Thursday :
+  - Number of 15 ton trucks: 2.0 
+Friday :
+  - Number of 15 ton trucks: 2.0</t>
   </si>
   <si>
     <t>38</t>
@@ -707,103 +396,34 @@
     <t>39</t>
   </si>
   <si>
-    <t>M :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 2.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: -0.0 _x000D_
-_x000D_
-T :_x000D_
-_x000D_
-  - Number of 15 ton trucks: -0.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: 3.0 _x000D_
-_x000D_
-W :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 2.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: -0.0 _x000D_
-_x000D_
-R :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 2.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: -0.0 _x000D_
-_x000D_
-F :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 2.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: -0.0</t>
-  </si>
-  <si>
     <t>40</t>
   </si>
   <si>
-    <t>M :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 10.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: -0.0 _x000D_
-_x000D_
-T :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 10.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: -0.0 _x000D_
-_x000D_
-W :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 10.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: -0.0 _x000D_
-_x000D_
-R :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 0.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: 15.0 _x000D_
-_x000D_
-F :_x000D_
-_x000D_
-  - Number of 15 ton trucks: -0.0 _x000D_
-_x000D_
+    <t>Monday :
+  - Number of 15 ton trucks: 10.0 
+Tuesday :
+  - Number of 15 ton trucks: 10.0 
+Wednesday :
+  - Number of 15 ton trucks: 10.0 
+Thursday :
+  - Number of 10 ton trucks: 15.0 
+Friday :
   - Number of 10 ton trucks: 15.0</t>
   </si>
   <si>
     <t>41</t>
   </si>
   <si>
-    <t>M :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 12.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: 0.0 _x000D_
-_x000D_
-T :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 12.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: -0.0 _x000D_
-_x000D_
-W :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 12.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: -0.0 _x000D_
-_x000D_
-R :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 0.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: 18.0 _x000D_
-_x000D_
-F :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 12.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: -0.0</t>
+    <t>Monday :
+  - Number of 15 ton trucks: 12.0 
+Tuesday :
+  - Number of 15 ton trucks: 12.0 
+Wednesday :
+  - Number of 15 ton trucks: 12.0 
+Thursday :
+  - Number of 10 ton trucks: 18.0 
+Friday :
+  - Number of 15 ton trucks: 12.0</t>
   </si>
   <si>
     <t>42</t>
@@ -815,35 +435,16 @@
     <t>44</t>
   </si>
   <si>
-    <t>M :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 0.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: 18.0 _x000D_
-_x000D_
-T :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 12.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: -0.0 _x000D_
-_x000D_
-W :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 12.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: -0.0 _x000D_
-_x000D_
-R :_x000D_
-_x000D_
-  - Number of 15 ton trucks: -0.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: 18.0 _x000D_
-_x000D_
-F :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 12.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: -0.0</t>
+    <t>Monday :
+  - Number of 10 ton trucks: 18.0 
+Tuesday :
+  - Number of 15 ton trucks: 12.0 
+Wednesday :
+  - Number of 15 ton trucks: 12.0 
+Thursday :
+  - Number of 10 ton trucks: 18.0 
+Friday :
+  - Number of 15 ton trucks: 12.0</t>
   </si>
   <si>
     <t>45</t>
@@ -855,23 +456,12 @@
     <t>47</t>
   </si>
   <si>
-    <t>M :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 0.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: 15.0 _x000D_
-_x000D_
-W :_x000D_
-_x000D_
-  - Number of 15 ton trucks: -0.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: 15.0 _x000D_
-_x000D_
-F :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 10.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: -0.0</t>
+    <t>Monday :
+  - Number of 10 ton trucks: 15.0 
+Wednesday :
+  - Number of 10 ton trucks: 15.0 
+Friday :
+  - Number of 15 ton trucks: 10.0</t>
   </si>
   <si>
     <t>48</t>
@@ -880,27 +470,17 @@
     <t>49</t>
   </si>
   <si>
-    <t>M :_x000D_
-_x000D_
-  - Number of 15 ton trucks: -0.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: 15.0 _x000D_
-_x000D_
-R :_x000D_
-_x000D_
-  - Number of 15 ton trucks: -0.0 _x000D_
-_x000D_
+    <t>Monday :
+  - Number of 10 ton trucks: 15.0 
+Thursday :
   - Number of 10 ton trucks: 15.0</t>
   </si>
   <si>
     <t>50</t>
   </si>
   <si>
-    <t>M :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 20.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: 0.0</t>
+    <t>Monday :
+  - Number of 15 ton trucks: 20.0</t>
   </si>
   <si>
     <t>51</t>
@@ -912,22 +492,11 @@
     <t>53</t>
   </si>
   <si>
-    <t>M :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 0.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: 15.0 _x000D_
-_x000D_
-W :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 10.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: -0.0 _x000D_
-_x000D_
-F :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 0.0 _x000D_
-_x000D_
+    <t>Monday :
+  - Number of 10 ton trucks: 15.0 
+Wednesday :
+  - Number of 15 ton trucks: 10.0 
+Friday :
   - Number of 10 ton trucks: 15.0</t>
   </si>
   <si>
@@ -946,491 +515,229 @@
     <t>58</t>
   </si>
   <si>
-    <t>M :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 0.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: 30.0 _x000D_
-_x000D_
-R :_x000D_
-_x000D_
-  - Number of 15 ton trucks: -0.0 _x000D_
-_x000D_
+    <t>60</t>
+  </si>
+  <si>
+    <t>Monday :
+  - Number of 15 ton trucks: 30.0</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>Monday :
+  - Number of 15 ton trucks: 2.0 
+Tuesday :
+  - Number of 15 ton trucks: 2.0 
+Wednesday :
+  - Number of 15 ton trucks: 2.0 
+Thursday :
+  - Number of 15 ton trucks: 2.0 
+Friday :
+  - Number of 10 ton trucks: 3.0</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>Monday :
+  - Number of 15 ton trucks: 2.0 
+  - Number of 10 ton trucks: 12.0 
+Wednesday :
+  - Number of 10 ton trucks: 15.0 
+Friday :
+  - Number of 10 ton trucks: 15.0</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>Monday :
+  - Number of 15 ton trucks: 14.0 
+  - Number of 10 ton trucks: 9.0 
+Thursday :
+  - Number of 15 ton trucks: 20.0</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>Monday :
+  - Number of 15 ton trucks: 10.0 
+Thursday :
+  - Number of 15 ton trucks: 10.0</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>Monday :
+  - Number of 15 ton trucks: 30.0 
+Thursday :
+  - Number of 15 ton trucks: 30.0</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>Monday :
+  - Number of 15 ton trucks: 30.0 
+Thursday :
+  - Number of 15 ton trucks: 20.0 
+  - Number of 10 ton trucks: 15.0</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>Monday :
+  - Number of 15 ton trucks: 4.0 
+Tuesday :
+  - Number of 15 ton trucks: 4.0 
+Wednesday :
+  - Number of 15 ton trucks: 4.0 
+Thursday :
+  - Number of 15 ton trucks: 4.0 
+Friday :
+  - Number of 15 ton trucks: 4.0</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>Monday :
   - Number of 10 ton trucks: 30.0</t>
   </si>
   <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>M :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 30.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: 0.0</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>M :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 2.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: -0.0 _x000D_
-_x000D_
-T :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 2.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: -0.0 _x000D_
-_x000D_
-W :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 2.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: -0.0 _x000D_
-_x000D_
-R :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 2.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: -0.0 _x000D_
-_x000D_
-F :_x000D_
-_x000D_
-  - Number of 15 ton trucks: -0.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: 3.0</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>M :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 2.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: 12.0 _x000D_
-_x000D_
-W :_x000D_
-_x000D_
-  - Number of 15 ton trucks: -0.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: 15.0 _x000D_
-_x000D_
-F :_x000D_
-_x000D_
-  - Number of 15 ton trucks: -0.0 _x000D_
-_x000D_
+    <t>77</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>Monday :
+  - Number of 15 ton trucks: 6.0 
+Tuesday :
+  - Number of 10 ton trucks: 9.0 
+Wednesday :
+  - Number of 10 ton trucks: 9.0 
+Thursday :
+  - Number of 15 ton trucks: 6.0 
+Friday :
+  - Number of 10 ton trucks: 9.0</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>Monday :
+  - Number of 15 ton trucks: 4.0 
+  - Number of 10 ton trucks: 39.0</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>Monday :
+  - Number of 15 ton trucks: 6.0 
+  - Number of 10 ton trucks: 1.0 
+Wednesday :
+  - Number of 10 ton trucks: 10.0 
+Friday :
+  - Number of 10 ton trucks: 10.0</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>Monday :
+  - Number of 10 ton trucks: 30.0 
+Thursday :
+  - Number of 15 ton trucks: 20.0</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>Monday :
+  - Number of 15 ton trucks: 10.0 
+Wednesday :
+  - Number of 15 ton trucks: 10.0 
+Friday :
   - Number of 10 ton trucks: 15.0</t>
   </si>
   <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>M :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 14.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: 9.0 _x000D_
-_x000D_
-R :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 20.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: -0.0</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>M :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 10.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: -0.0 _x000D_
-_x000D_
-R :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 10.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: -0.0</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>M :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 30.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: -0.0 _x000D_
-_x000D_
-R :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 30.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: -0.0</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>M :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 30.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: -0.0 _x000D_
-_x000D_
-R :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 20.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: 15.0</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>M :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 4.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: 0.0 _x000D_
-_x000D_
-T :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 4.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: -0.0 _x000D_
-_x000D_
-W :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 4.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: -0.0 _x000D_
-_x000D_
-R :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 4.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: 0.0 _x000D_
-_x000D_
-F :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 4.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: -0.0</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>M :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 20.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: -0.0 _x000D_
-_x000D_
-R :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 20.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: -0.0</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>M :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 10.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: 0.0 _x000D_
-_x000D_
-R :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 10.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: -0.0</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>M :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 0.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: 30.0</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>M :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 10.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: -0.0 _x000D_
-_x000D_
-T :_x000D_
-_x000D_
-  - Number of 15 ton trucks: -0.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: 15.0 _x000D_
-_x000D_
-W :_x000D_
-_x000D_
-  - Number of 15 ton trucks: -0.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: 15.0 _x000D_
-_x000D_
-R :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 10.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: -0.0 _x000D_
-_x000D_
-F :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 10.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: -0.0</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>M :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 0.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: 30.0 _x000D_
-_x000D_
-R :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 0.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: 30.0</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>M :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 6.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: -0.0 _x000D_
-_x000D_
-T :_x000D_
-_x000D_
-  - Number of 15 ton trucks: -0.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: 9.0 _x000D_
-_x000D_
-W :_x000D_
-_x000D_
-  - Number of 15 ton trucks: -0.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: 9.0 _x000D_
-_x000D_
-R :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 6.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: -0.0 _x000D_
-_x000D_
-F :_x000D_
-_x000D_
-  - Number of 15 ton trucks: -0.0 _x000D_
-_x000D_
+    <t>89</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>Monday :
+  - Number of 15 ton trucks: 6.0 
+Tuesday :
+  - Number of 10 ton trucks: 9.0 
+Wednesday :
+  - Number of 15 ton trucks: 6.0 
+Thursday :
+  - Number of 15 ton trucks: 4.0 
+  - Number of 10 ton trucks: 3.0 
+Friday :
   - Number of 10 ton trucks: 9.0</t>
   </si>
   <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>M :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 4.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: 39.0</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>M :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 15.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: -0.0 _x000D_
-_x000D_
-R :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 15.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: -0.0</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>M :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 6.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: 1.0 _x000D_
-_x000D_
-W :_x000D_
-_x000D_
-  - Number of 15 ton trucks: -0.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: 10.0 _x000D_
-_x000D_
-F :_x000D_
-_x000D_
-  - Number of 15 ton trucks: -0.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: 10.0</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>M :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 0.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: 30.0 _x000D_
-_x000D_
-R :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 20.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: -0.0</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>M :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 10.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: -0.0 _x000D_
-_x000D_
-W :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 10.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: -0.0 _x000D_
-_x000D_
-F :_x000D_
-_x000D_
-  - Number of 15 ton trucks: -0.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: 15.0</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>M :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 6.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: -0.0 _x000D_
-_x000D_
-T :_x000D_
-_x000D_
-  - Number of 15 ton trucks: -0.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: 9.0 _x000D_
-_x000D_
-W :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 6.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: -0.0 _x000D_
-_x000D_
-R :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 4.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: 3.0 _x000D_
-_x000D_
-F :_x000D_
-_x000D_
-  - Number of 15 ton trucks: -0.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: 9.0</t>
-  </si>
-  <si>
     <t>92</t>
   </si>
   <si>
-    <t>M :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 10.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: -0.0 _x000D_
-_x000D_
-T :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 10.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: -0.0 _x000D_
-_x000D_
-W :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 10.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: -0.0 _x000D_
-_x000D_
-R :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 0.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: 15.0 _x000D_
-_x000D_
-F :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 10.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: -0.0</t>
+    <t>Monday :
+  - Number of 15 ton trucks: 10.0 
+Tuesday :
+  - Number of 15 ton trucks: 10.0 
+Wednesday :
+  - Number of 15 ton trucks: 10.0 
+Thursday :
+  - Number of 10 ton trucks: 15.0 
+Friday :
+  - Number of 15 ton trucks: 10.0</t>
   </si>
   <si>
     <t>93</t>
@@ -1451,17 +758,11 @@
     <t>98</t>
   </si>
   <si>
-    <t>M :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 3.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: 3.0 _x000D_
-_x000D_
-R :_x000D_
-_x000D_
-  - Number of 15 ton trucks: 5.0 _x000D_
-_x000D_
-  - Number of 10 ton trucks: -0.0</t>
+    <t>Monday :
+  - Number of 15 ton trucks: 3.0 
+  - Number of 10 ton trucks: 3.0 
+Thursday :
+  - Number of 15 ton trucks: 5.0</t>
   </si>
   <si>
     <t>99</t>
@@ -1481,7 +782,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1842,12 +1142,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="9.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="255.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="15.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1867,7 +1167,7 @@
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="150.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1878,7 +1178,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="150.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1889,7 +1189,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="388.5">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -1900,7 +1200,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="150.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -1911,7 +1211,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="150.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -1922,7 +1222,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="72">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
@@ -1933,7 +1233,7 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="150.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -1944,7 +1244,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="150.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
@@ -1955,7 +1255,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="150.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
@@ -1966,7 +1266,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="388.5">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
@@ -1977,7 +1277,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="150.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="2" t="s">
         <v>28</v>
       </c>
@@ -1988,7 +1288,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="150.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="2" t="s">
         <v>30</v>
       </c>
@@ -1999,7 +1299,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="150.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="2" t="s">
         <v>31</v>
       </c>
@@ -2235,7 +1535,7 @@
         <v>71</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>7</v>
@@ -2243,10 +1543,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>12</v>
@@ -2254,7 +1554,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>55</v>
@@ -2265,10 +1565,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>12</v>
@@ -2276,10 +1576,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>12</v>
@@ -2287,10 +1587,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>12</v>
@@ -2298,7 +1598,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>59</v>
@@ -2309,7 +1609,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>49</v>
@@ -2320,10 +1620,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>12</v>
@@ -2331,7 +1631,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
       <c r="A45" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>18</v>
@@ -2342,7 +1642,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
       <c r="A46" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>55</v>
@@ -2353,10 +1653,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
       <c r="A47" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>68</v>
@@ -2364,7 +1664,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
       <c r="A48" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>59</v>
@@ -2375,10 +1675,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
       <c r="A49" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>7</v>
@@ -2386,10 +1686,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
       <c r="A50" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>19</v>
@@ -2397,7 +1697,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
       <c r="A51" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>53</v>
@@ -2408,10 +1708,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
       <c r="A52" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>7</v>
@@ -2419,10 +1719,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
       <c r="A53" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>68</v>
@@ -2430,7 +1730,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
       <c r="A54" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>59</v>
@@ -2441,10 +1741,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
       <c r="A55" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>68</v>
@@ -2452,7 +1752,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
       <c r="A56" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>53</v>
@@ -2463,7 +1763,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
       <c r="A57" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>47</v>
@@ -2474,10 +1774,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
       <c r="A58" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>7</v>
@@ -2485,10 +1785,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
       <c r="A59" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>19</v>
@@ -2496,7 +1796,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
       <c r="A60" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>40</v>
@@ -2507,10 +1807,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
       <c r="A61" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>12</v>
@@ -2518,10 +1818,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
       <c r="A62" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>68</v>
@@ -2529,10 +1829,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
       <c r="A63" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>7</v>
@@ -2540,10 +1840,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
       <c r="A64" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>7</v>
@@ -2551,10 +1851,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
       <c r="A65" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>7</v>
@@ -2562,7 +1862,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
       <c r="A66" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>55</v>
@@ -2573,10 +1873,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
       <c r="A67" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>7</v>
@@ -2584,10 +1884,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
       <c r="A68" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>12</v>
@@ -2595,10 +1895,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
       <c r="A69" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>124</v>
+        <v>61</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>7</v>
@@ -2606,10 +1906,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
       <c r="A70" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>7</v>
@@ -2617,7 +1917,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
       <c r="A71" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>25</v>
@@ -2628,10 +1928,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
       <c r="A72" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>124</v>
+        <v>61</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>7</v>
@@ -2639,10 +1939,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
       <c r="A73" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>19</v>
@@ -2650,10 +1950,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
       <c r="A74" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>7</v>
@@ -2661,10 +1961,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
       <c r="A75" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>19</v>
@@ -2672,10 +1972,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
       <c r="A76" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>134</v>
+        <v>38</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>12</v>
@@ -2683,10 +1983,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
       <c r="A77" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>136</v>
+        <v>45</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>7</v>
@@ -2694,10 +1994,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
       <c r="A78" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>12</v>
@@ -2705,18 +2005,18 @@
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
       <c r="A79" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="58.5">
       <c r="A80" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>40</v>
@@ -2725,75 +2025,75 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="58.5">
       <c r="A81" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>143</v>
+        <v>25</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="98.25">
       <c r="A82" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="58.5">
       <c r="A83" s="2" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="58.5">
       <c r="A84" s="2" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="84.75">
       <c r="A85" s="2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="58.5">
       <c r="A86" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="58.5">
       <c r="A87" s="2" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>40</v>
@@ -2802,42 +2102,42 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="150.75">
       <c r="A88" s="2" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="138">
       <c r="A89" s="2" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="58.5">
       <c r="A90" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="58.5">
       <c r="A91" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>40</v>
@@ -2846,20 +2146,20 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="58.5">
       <c r="A92" s="2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="58.5">
       <c r="A93" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>42</v>
@@ -2868,9 +2168,9 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="58.5">
       <c r="A94" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>40</v>
@@ -2879,12 +2179,12 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="72">
       <c r="A95" s="2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>7</v>
@@ -2892,10 +2192,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
       <c r="A96" s="2" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>7</v>

--- a/delivery system/results.xlsx
+++ b/delivery system/results.xlsx
@@ -466,7 +466,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -488,7 +488,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -509,7 +509,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -535,7 +535,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -555,7 +555,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -575,7 +575,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -593,7 +593,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -613,7 +613,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -634,7 +634,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -654,7 +654,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -680,7 +680,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -702,7 +702,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -722,7 +722,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -744,7 +744,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -770,7 +770,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -822,7 +822,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -842,7 +842,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -862,7 +862,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -882,7 +882,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -902,7 +902,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -924,7 +924,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -942,7 +942,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>26</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -982,7 +982,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1003,7 +1003,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1021,7 +1021,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1047,7 +1047,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1068,7 +1068,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>31</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1088,7 +1088,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1108,7 +1108,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1134,7 +1134,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1156,7 +1156,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1182,7 +1182,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>37</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1202,7 +1202,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>38</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1228,7 +1228,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>39</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1246,7 +1246,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1272,7 +1272,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>41</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1298,7 +1298,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>42</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1324,7 +1324,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>43</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1345,7 +1345,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>44</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1363,7 +1363,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>45</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1389,7 +1389,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>46</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1407,7 +1407,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>47</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1425,7 +1425,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>48</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1447,7 +1447,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>49</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1468,7 +1468,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>50</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1488,7 +1488,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>51</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1506,7 +1506,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>52</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1527,7 +1527,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>53</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1547,7 +1547,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>54</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1569,7 +1569,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>55</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1590,7 +1590,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>56</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1612,7 +1612,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>57</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1633,7 +1633,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>58</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1655,7 +1655,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>59</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1675,7 +1675,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>61</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1693,7 +1693,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>62</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1713,7 +1713,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>63</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1739,7 +1739,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>64</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1762,7 +1762,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>65</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1783,7 +1783,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>66</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1803,7 +1803,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>67</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1823,7 +1823,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>69</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1841,7 +1841,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>70</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1862,7 +1862,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1888,7 +1888,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>73</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1908,7 +1908,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>74</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1928,7 +1928,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>75</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1948,7 +1948,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>76</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1968,7 +1968,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>77</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1986,7 +1986,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>78</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2006,7 +2006,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>79</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2024,7 +2024,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>80</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2050,7 +2050,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>81</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2070,7 +2070,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>82</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2096,7 +2096,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>83</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2115,7 +2115,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>84</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2135,7 +2135,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>85</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2155,7 +2155,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>86</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2178,7 +2178,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>87</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2198,7 +2198,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>88</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2218,7 +2218,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>89</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2240,7 +2240,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>90</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2260,7 +2260,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>91</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2280,7 +2280,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>92</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2307,7 +2307,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>93</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2333,7 +2333,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>94</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -2353,7 +2353,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>95</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -2373,7 +2373,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>96</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -2393,7 +2393,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>97</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -2413,7 +2413,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>98</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -2433,7 +2433,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>99</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -2454,7 +2454,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>100</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
